--- a/New files/Endeavor Health Northshore/10215642 - Evanston Hospital - Cath Lab  EP Lab.xlsx
+++ b/New files/Endeavor Health Northshore/10215642 - Evanston Hospital - Cath Lab  EP Lab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F318DD-6CD9-458D-A5DB-D2CD65A4FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7D3393-D860-49F0-B360-FF30C6974B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{30D1003D-8738-4DAE-9729-0AC1CB737833}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29EA82BF-A097-4FA7-B797-B35CFFE75D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="73">
   <si>
     <t>Bill to</t>
   </si>
@@ -91,99 +91,111 @@
     <t>Evanston, IL 60201-1613</t>
   </si>
   <si>
+    <t>Evanston Hospital - Total</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Dept Id</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Cath Lab / EP Lab</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Productive Hours</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Call Back</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Non-Productive Hours</t>
+  </si>
+  <si>
+    <t>On-Call</t>
+  </si>
+  <si>
+    <t>Total Amount Due</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Caregiver</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>Subcontractor</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Regular Hours</t>
+  </si>
+  <si>
+    <t>Overtime/Holiday Hours</t>
+  </si>
+  <si>
+    <t>Bill Rate</t>
+  </si>
+  <si>
+    <t>Bill Gross</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Invoicing Period</t>
+  </si>
+  <si>
+    <t>King, Kenneth</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>Cath Lab</t>
+  </si>
+  <si>
+    <t>Triage, LLC</t>
+  </si>
+  <si>
     <t>Evanston Hospital</t>
   </si>
   <si>
-    <t>Total Hours</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Dept Id</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Cath Lab / EP Lab</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Productive Hours</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Call Back</t>
-  </si>
-  <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Non-Productive Hours</t>
-  </si>
-  <si>
-    <t>On-Call</t>
-  </si>
-  <si>
-    <t>Total Amount Due</t>
-  </si>
-  <si>
-    <t>Cost Center</t>
-  </si>
-  <si>
-    <t>Caregiver</t>
-  </si>
-  <si>
-    <t>Specialty</t>
-  </si>
-  <si>
-    <t>Subcontractor</t>
-  </si>
-  <si>
-    <t>Facility</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Shift</t>
-  </si>
-  <si>
-    <t>Task Name</t>
-  </si>
-  <si>
-    <t>Regular Hours</t>
-  </si>
-  <si>
-    <t>Overtime/Holiday Hours</t>
-  </si>
-  <si>
-    <t>Bill Rate</t>
-  </si>
-  <si>
-    <t>Bill Gross</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>Invoicing Period</t>
-  </si>
-  <si>
-    <t>King, Kenneth</t>
-  </si>
-  <si>
-    <t>Cath Lab</t>
-  </si>
-  <si>
-    <t>Triage, LLC</t>
-  </si>
-  <si>
     <t>20:00 - 06:30</t>
   </si>
   <si>
@@ -191,6 +203,9 @@
   </si>
   <si>
     <t>Poston, Lauren</t>
+  </si>
+  <si>
+    <t>RAD-CARD</t>
   </si>
   <si>
     <t>Electrophysiology Tech</t>
@@ -641,20 +656,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4009A5-115E-622F-474B-9A66256C8B1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E78D557-41C8-2455-54A5-3004D238AAA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1005,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD116DB-0C66-44EB-8E5D-D9292E00FB95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8BDFFD-8554-4AD3-ACC6-E4E8EB08FF66}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1013,14 +1028,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1225,13 +1240,13 @@
         <v>23</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="42"/>
@@ -1242,7 +1257,7 @@
         <v>1100100095</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" s="18">
         <v>162.5</v>
@@ -1259,7 +1274,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="C24" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="24">
@@ -1277,10 +1292,10 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="D26" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>21</v>
@@ -1290,7 +1305,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="D27" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="18">
         <v>74.25</v>
@@ -1303,7 +1318,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
       <c r="D28" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="18">
         <v>6.5</v>
@@ -1316,7 +1331,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="D29" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="27">
         <v>80.75</v>
@@ -1329,10 +1344,10 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="D30" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>21</v>
@@ -1342,7 +1357,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="D31" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E31" s="18">
         <v>81.75</v>
@@ -1355,7 +1370,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="D32" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" s="29">
         <v>81.75</v>
@@ -1368,7 +1383,7 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="D33" s="31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33" s="24">
         <v>162.5</v>
@@ -1410,8 +1425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB23636-F9CF-4766-BECF-46B3830CE3A4}">
-  <dimension ref="A1:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06CB392-CB91-4137-82C8-8A4C95C08B0B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1420,1118 +1435,1185 @@
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="37">
         <v>1100100095</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="38">
+        <v>52</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="38">
         <v>45453</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="41">
+        <v>54</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="41">
         <v>10.5</v>
       </c>
-      <c r="K2" s="41">
+      <c r="L2" s="41">
         <v>0</v>
       </c>
-      <c r="L2" s="40">
+      <c r="M2" s="40">
         <v>10.5</v>
       </c>
-      <c r="M2" s="36">
+      <c r="N2" s="36">
         <v>10</v>
       </c>
-      <c r="N2" s="36">
+      <c r="O2" s="36">
         <v>105</v>
       </c>
-      <c r="O2" s="39">
+      <c r="P2" s="39">
         <v>10215642</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="37">
         <v>1100100095</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="38">
+        <v>52</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="38">
         <v>45462</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="41">
+        <v>55</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="41">
         <v>8.5</v>
       </c>
-      <c r="K3" s="41">
+      <c r="L3" s="41">
         <v>0</v>
       </c>
-      <c r="L3" s="40">
+      <c r="M3" s="40">
         <v>8.5</v>
       </c>
-      <c r="M3" s="36">
+      <c r="N3" s="36">
         <v>10</v>
       </c>
-      <c r="N3" s="36">
+      <c r="O3" s="36">
         <v>85</v>
       </c>
-      <c r="O3" s="39">
+      <c r="P3" s="39">
         <v>10215642</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="37">
         <v>1100100095</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="38">
+      <c r="H4" s="38">
         <v>45460</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="I4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="41">
+        <v>60</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="41">
         <v>6.75</v>
       </c>
-      <c r="K4" s="41">
+      <c r="L4" s="41">
         <v>0</v>
       </c>
-      <c r="L4" s="40">
+      <c r="M4" s="40">
         <v>6.75</v>
       </c>
-      <c r="M4" s="36">
+      <c r="N4" s="36">
         <v>10</v>
       </c>
-      <c r="N4" s="36">
+      <c r="O4" s="36">
         <v>67.5</v>
       </c>
-      <c r="O4" s="39">
+      <c r="P4" s="39">
         <v>10215642</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>1100100095</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="38">
+      <c r="H5" s="38">
         <v>45460</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="I5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="41">
+        <v>61</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="41">
         <v>10.25</v>
       </c>
-      <c r="K5" s="41">
+      <c r="L5" s="41">
         <v>0</v>
       </c>
-      <c r="L5" s="40">
+      <c r="M5" s="40">
         <v>10.25</v>
       </c>
-      <c r="M5" s="36">
+      <c r="N5" s="36">
         <v>115</v>
       </c>
-      <c r="N5" s="36">
+      <c r="O5" s="36">
         <v>1178.75</v>
       </c>
-      <c r="O5" s="39">
+      <c r="P5" s="39">
         <v>10215642</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="Q5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="37">
         <v>1100100095</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="38">
+      <c r="H6" s="38">
         <v>45461</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="I6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="41">
+        <v>62</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="41">
         <v>7</v>
       </c>
-      <c r="K6" s="41">
+      <c r="L6" s="41">
         <v>0</v>
       </c>
-      <c r="L6" s="40">
+      <c r="M6" s="40">
         <v>7</v>
       </c>
-      <c r="M6" s="36">
+      <c r="N6" s="36">
         <v>10</v>
       </c>
-      <c r="N6" s="36">
+      <c r="O6" s="36">
         <v>70</v>
       </c>
-      <c r="O6" s="39">
+      <c r="P6" s="39">
         <v>10215642</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="37">
         <v>1100100095</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="38">
+      <c r="H7" s="38">
         <v>45461</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="I7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="41">
+        <v>63</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="41">
         <v>9.5</v>
       </c>
-      <c r="K7" s="41">
+      <c r="L7" s="41">
         <v>0</v>
       </c>
-      <c r="L7" s="40">
+      <c r="M7" s="40">
         <v>9.5</v>
       </c>
-      <c r="M7" s="36">
+      <c r="N7" s="36">
         <v>10</v>
       </c>
-      <c r="N7" s="36">
+      <c r="O7" s="36">
         <v>95</v>
       </c>
-      <c r="O7" s="39">
+      <c r="P7" s="39">
         <v>10215642</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>1100100095</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="38">
+      <c r="H8" s="38">
         <v>45461</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="I8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="41">
+        <v>64</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="41">
         <v>7.5</v>
       </c>
-      <c r="K8" s="41">
+      <c r="L8" s="41">
         <v>0</v>
       </c>
-      <c r="L8" s="40">
+      <c r="M8" s="40">
         <v>7.5</v>
       </c>
-      <c r="M8" s="36">
+      <c r="N8" s="36">
         <v>115</v>
       </c>
-      <c r="N8" s="36">
+      <c r="O8" s="36">
         <v>862.5</v>
       </c>
-      <c r="O8" s="39">
+      <c r="P8" s="39">
         <v>10215642</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="Q8" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
         <v>1100100095</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="38">
+      <c r="H9" s="38">
         <v>45462</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="I9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="41">
+        <v>62</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="41">
         <v>7</v>
       </c>
-      <c r="K9" s="41">
+      <c r="L9" s="41">
         <v>0</v>
       </c>
-      <c r="L9" s="40">
+      <c r="M9" s="40">
         <v>7</v>
       </c>
-      <c r="M9" s="36">
+      <c r="N9" s="36">
         <v>10</v>
       </c>
-      <c r="N9" s="36">
+      <c r="O9" s="36">
         <v>70</v>
       </c>
-      <c r="O9" s="39">
+      <c r="P9" s="39">
         <v>10215642</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="37">
         <v>1100100095</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="38">
+      <c r="H10" s="38">
         <v>45462</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="I10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="41">
+        <v>61</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="41">
         <v>10.25</v>
       </c>
-      <c r="K10" s="41">
+      <c r="L10" s="41">
         <v>0</v>
       </c>
-      <c r="L10" s="40">
+      <c r="M10" s="40">
         <v>10.25</v>
       </c>
-      <c r="M10" s="36">
+      <c r="N10" s="36">
         <v>115</v>
       </c>
-      <c r="N10" s="36">
+      <c r="O10" s="36">
         <v>1178.75</v>
       </c>
-      <c r="O10" s="39">
+      <c r="P10" s="39">
         <v>10215642</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="Q10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="37">
         <v>1100100095</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="38">
+      <c r="H11" s="38">
         <v>45463</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="I11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="41">
+        <v>65</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="41">
         <v>4.5</v>
       </c>
-      <c r="K11" s="41">
+      <c r="L11" s="41">
         <v>0</v>
       </c>
-      <c r="L11" s="40">
+      <c r="M11" s="40">
         <v>4.5</v>
       </c>
-      <c r="M11" s="36">
+      <c r="N11" s="36">
         <v>172.5</v>
       </c>
-      <c r="N11" s="36">
+      <c r="O11" s="36">
         <v>776.25</v>
       </c>
-      <c r="O11" s="39">
+      <c r="P11" s="39">
         <v>10215642</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="37">
         <v>1100100095</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="38">
+      <c r="H12" s="38">
         <v>45463</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="I12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="41">
+        <v>66</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="41">
         <v>10</v>
       </c>
-      <c r="K12" s="41">
+      <c r="L12" s="41">
         <v>0</v>
       </c>
-      <c r="L12" s="40">
+      <c r="M12" s="40">
         <v>10</v>
       </c>
-      <c r="M12" s="36">
+      <c r="N12" s="36">
         <v>115</v>
       </c>
-      <c r="N12" s="36">
+      <c r="O12" s="36">
         <v>1150</v>
       </c>
-      <c r="O12" s="39">
+      <c r="P12" s="39">
         <v>10215642</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>1100100095</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="38">
+      <c r="H13" s="38">
         <v>45464</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="I13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="41">
+        <v>62</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="41">
         <v>7</v>
       </c>
-      <c r="K13" s="41">
+      <c r="L13" s="41">
         <v>0</v>
       </c>
-      <c r="L13" s="40">
+      <c r="M13" s="40">
         <v>7</v>
       </c>
-      <c r="M13" s="36">
+      <c r="N13" s="36">
         <v>10</v>
       </c>
-      <c r="N13" s="36">
+      <c r="O13" s="36">
         <v>70</v>
       </c>
-      <c r="O13" s="39">
+      <c r="P13" s="39">
         <v>10215642</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>1100100095</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="38">
+      <c r="H14" s="38">
         <v>45467</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="I14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="41">
+        <v>67</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="41">
         <v>7</v>
       </c>
-      <c r="K14" s="41">
+      <c r="L14" s="41">
         <v>0</v>
       </c>
-      <c r="L14" s="40">
+      <c r="M14" s="40">
         <v>7</v>
       </c>
-      <c r="M14" s="36">
+      <c r="N14" s="36">
         <v>10</v>
       </c>
-      <c r="N14" s="36">
+      <c r="O14" s="36">
         <v>70</v>
       </c>
-      <c r="O14" s="39">
+      <c r="P14" s="39">
         <v>10215642</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>1100100095</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="38">
+      <c r="H15" s="38">
         <v>45467</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="I15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="41">
+        <v>66</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="41">
         <v>10</v>
       </c>
-      <c r="K15" s="41">
+      <c r="L15" s="41">
         <v>0</v>
       </c>
-      <c r="L15" s="40">
+      <c r="M15" s="40">
         <v>10</v>
       </c>
-      <c r="M15" s="36">
+      <c r="N15" s="36">
         <v>115</v>
       </c>
-      <c r="N15" s="36">
+      <c r="O15" s="36">
         <v>1150</v>
       </c>
-      <c r="O15" s="39">
+      <c r="P15" s="39">
         <v>10215642</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>1100100095</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="38">
+      <c r="H16" s="38">
         <v>45468</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="I16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="41">
+        <v>62</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="41">
         <v>7</v>
       </c>
-      <c r="K16" s="41">
+      <c r="L16" s="41">
         <v>0</v>
       </c>
-      <c r="L16" s="40">
+      <c r="M16" s="40">
         <v>7</v>
       </c>
-      <c r="M16" s="36">
+      <c r="N16" s="36">
         <v>10</v>
       </c>
-      <c r="N16" s="36">
+      <c r="O16" s="36">
         <v>70</v>
       </c>
-      <c r="O16" s="39">
+      <c r="P16" s="39">
         <v>10215642</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>1100100095</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="38">
+      <c r="H17" s="38">
         <v>45468</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="I17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="41">
+        <v>68</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="41">
         <v>9.5</v>
       </c>
-      <c r="K17" s="41">
+      <c r="L17" s="41">
         <v>0</v>
       </c>
-      <c r="L17" s="40">
+      <c r="M17" s="40">
         <v>9.5</v>
       </c>
-      <c r="M17" s="36">
+      <c r="N17" s="36">
         <v>115</v>
       </c>
-      <c r="N17" s="36">
+      <c r="O17" s="36">
         <v>1092.5</v>
       </c>
-      <c r="O17" s="39">
+      <c r="P17" s="39">
         <v>10215642</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>1100100095</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="38">
+      <c r="H18" s="38">
         <v>45469</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="I18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="41">
+        <v>69</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="41">
         <v>2</v>
       </c>
-      <c r="K18" s="41">
+      <c r="L18" s="41">
         <v>0</v>
       </c>
-      <c r="L18" s="40">
+      <c r="M18" s="40">
         <v>2</v>
       </c>
-      <c r="M18" s="36">
+      <c r="N18" s="36">
         <v>172.5</v>
       </c>
-      <c r="N18" s="36">
+      <c r="O18" s="36">
         <v>345</v>
       </c>
-      <c r="O18" s="39">
+      <c r="P18" s="39">
         <v>10215642</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="Q18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>1100100095</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="38">
+      <c r="H19" s="38">
         <v>45469</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="I19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="41">
+        <v>70</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="41">
         <v>4.5</v>
       </c>
-      <c r="K19" s="41">
+      <c r="L19" s="41">
         <v>0</v>
       </c>
-      <c r="L19" s="40">
+      <c r="M19" s="40">
         <v>4.5</v>
       </c>
-      <c r="M19" s="36">
+      <c r="N19" s="36">
         <v>10</v>
       </c>
-      <c r="N19" s="36">
+      <c r="O19" s="36">
         <v>45</v>
       </c>
-      <c r="O19" s="39">
+      <c r="P19" s="39">
         <v>10215642</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="Q19" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>1100100095</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="38">
+      <c r="H20" s="38">
         <v>45469</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="I20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="41">
+        <v>71</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="41">
         <v>10.5</v>
       </c>
-      <c r="K20" s="41">
+      <c r="L20" s="41">
         <v>0</v>
       </c>
-      <c r="L20" s="40">
+      <c r="M20" s="40">
         <v>10.5</v>
       </c>
-      <c r="M20" s="36">
+      <c r="N20" s="36">
         <v>115</v>
       </c>
-      <c r="N20" s="36">
+      <c r="O20" s="36">
         <v>1207.5</v>
       </c>
-      <c r="O20" s="39">
+      <c r="P20" s="39">
         <v>10215642</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="Q20" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>1100100095</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="38">
+      <c r="H21" s="38">
         <v>45470</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="I21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="41">
+        <v>62</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="41">
         <v>7</v>
       </c>
-      <c r="K21" s="41">
+      <c r="L21" s="41">
         <v>0</v>
       </c>
-      <c r="L21" s="40">
+      <c r="M21" s="40">
         <v>7</v>
       </c>
-      <c r="M21" s="36">
+      <c r="N21" s="36">
         <v>10</v>
       </c>
-      <c r="N21" s="36">
+      <c r="O21" s="36">
         <v>70</v>
       </c>
-      <c r="O21" s="39">
+      <c r="P21" s="39">
         <v>10215642</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="Q21" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>1100100095</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="38">
+      <c r="H22" s="38">
         <v>45470</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="I22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="41">
+        <v>72</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="41">
         <v>6.25</v>
       </c>
-      <c r="K22" s="41">
+      <c r="L22" s="41">
         <v>0</v>
       </c>
-      <c r="L22" s="40">
+      <c r="M22" s="40">
         <v>6.25</v>
       </c>
-      <c r="M22" s="36">
+      <c r="N22" s="36">
         <v>115</v>
       </c>
-      <c r="N22" s="36">
+      <c r="O22" s="36">
         <v>718.75</v>
       </c>
-      <c r="O22" s="39">
+      <c r="P22" s="39">
         <v>10215642</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>13</v>
       </c>
     </row>
